--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylorgan\OneDrive\GitHub\Tencent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_B8A2BFDE97D9AECF8A160B7B337C8E08625A03AD" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2A76228D-520F-4230-9452-D13C2F7770B6}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_B8A2BFDE97D9AECF8A160B7B337C8E08625A03AD" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AA033C9F-3E6B-E44B-A3B6-E1A6CC5C1718}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3105" yWindow="6900" windowWidth="7500" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -28,109 +28,19 @@
     <t>反馈</t>
   </si>
   <si>
-    <t>万莫彤</t>
-  </si>
-  <si>
-    <t>杨雯瑾</t>
-  </si>
-  <si>
-    <t>凌潇楠</t>
-  </si>
-  <si>
-    <t>房俊阳</t>
-  </si>
-  <si>
-    <t>邓欣童</t>
-  </si>
-  <si>
-    <t>何琳璇</t>
-  </si>
-  <si>
-    <t>由晨欣</t>
-  </si>
-  <si>
-    <t>袁铁钧</t>
-  </si>
-  <si>
-    <t>李奕冰</t>
-  </si>
-  <si>
-    <t>张子赫</t>
-  </si>
-  <si>
-    <t>周琪璇</t>
-  </si>
-  <si>
-    <t>孙于硕</t>
-  </si>
-  <si>
-    <t>王双青</t>
-  </si>
-  <si>
-    <t>曹文君</t>
-  </si>
-  <si>
-    <t>经依琳</t>
+    <t>AAA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家长您好，和您反馈一下经依琳的学习情况：孩子今天表现很好，一共听了128.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，但是没有及格，可以看一下解析问题出在哪里或者在群里问我。^_^</t>
+    <t>家长您好，和您反馈一下AAA的学习情况：孩子今天表现很好，一共听了125.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家长您好，和您反馈一下万莫彤的学习情况：孩子今天表现很好，一共听了125.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
+    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>家长您好，和您反馈一下杨雯瑾的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下凌潇楠的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下房俊阳的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，但是没有及格，可以看一下解析问题出在哪里或者在群里问我。^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下邓欣童的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下何琳璇的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下由晨欣的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下袁铁钧的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下李奕冰的学习情况：孩子今天早上可能来晚了，听课时长只有29.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下张子赫的学习情况：孩子今天早上可能来晚了，听课时长只有31.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下周琪璇的学习情况：孩子今天早上可能来晚了，听课时长只有72.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下孙于硕的学习情况：孩子今天早上可能来晚了，听课时长只有94.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我~然后孩子的作业已经改完了，但是没有及格，可以看一下解析问题出在哪里或者在群里问我。^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下王双青的学习情况：孩子今天由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下曹文君的学习情况：孩子今天由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
+    <t>AAAA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,12 +453,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,126 +466,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="4" spans="1:2"/>
+    <row r="5" spans="1:2"/>
+    <row r="6" spans="1:2"/>
+    <row r="7" spans="1:2"/>
+    <row r="8" spans="1:2"/>
+    <row r="9" spans="1:2"/>
+    <row r="10" spans="1:2"/>
+    <row r="11" spans="1:2"/>
+    <row r="12" spans="1:2"/>
+    <row r="13" spans="1:2"/>
+    <row r="14" spans="1:2"/>
+    <row r="15" spans="1:2"/>
+    <row r="16" spans="1:2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_B8A2BFDE97D9AECF8A160B7B337C8E08625A03AD" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AA033C9F-3E6B-E44B-A3B6-E1A6CC5C1718}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>姓名</t>
   </si>
@@ -28,31 +22,351 @@
     <t>反馈</t>
   </si>
   <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长您好，和您反馈一下AAA的学习情况：孩子今天表现很好，一共听了125.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒完成，我会帮他批改的，填空题记得把过程也拍下来^_^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>杨泷惠</t>
+  </si>
+  <si>
+    <t>翟梦婷</t>
+  </si>
+  <si>
+    <t>缑娇娇</t>
+  </si>
+  <si>
+    <t>秦依琳</t>
+  </si>
+  <si>
+    <t>金芸慧</t>
+  </si>
+  <si>
+    <t>陈星宇</t>
+  </si>
+  <si>
+    <t>闫雨彤</t>
+  </si>
+  <si>
+    <t>邓绪国</t>
+  </si>
+  <si>
+    <t>吴咨廷</t>
+  </si>
+  <si>
+    <t>吴琪</t>
+  </si>
+  <si>
+    <t>郭君仪</t>
+  </si>
+  <si>
+    <t>季向空</t>
+  </si>
+  <si>
+    <t>祝鑫鋆</t>
+  </si>
+  <si>
+    <t>江鸿</t>
+  </si>
+  <si>
+    <t>谭灿</t>
+  </si>
+  <si>
+    <t>肖明玉</t>
+  </si>
+  <si>
+    <t>刘家欣</t>
+  </si>
+  <si>
+    <t>贺梦</t>
+  </si>
+  <si>
+    <t>查格西</t>
+  </si>
+  <si>
+    <t>徐鹏博</t>
+  </si>
+  <si>
+    <t>刘宇航</t>
+  </si>
+  <si>
+    <t>李卓蔓</t>
+  </si>
+  <si>
+    <t>冯梦瑶</t>
+  </si>
+  <si>
+    <t>赵泽帆</t>
+  </si>
+  <si>
+    <t>赵曼</t>
+  </si>
+  <si>
+    <t>范子蕾</t>
+  </si>
+  <si>
+    <t>陈九洲</t>
+  </si>
+  <si>
+    <t>王睿</t>
+  </si>
+  <si>
+    <t>华海洋</t>
+  </si>
+  <si>
+    <t>冯意涵</t>
+  </si>
+  <si>
+    <t>徐从</t>
+  </si>
+  <si>
+    <t>杜懿轩</t>
+  </si>
+  <si>
+    <t>邵麟婷</t>
+  </si>
+  <si>
+    <t>贾晶</t>
+  </si>
+  <si>
+    <t>魏苗</t>
+  </si>
+  <si>
+    <t>刘颖洁</t>
+  </si>
+  <si>
+    <t>黄浩伟</t>
+  </si>
+  <si>
+    <t>李浚仪</t>
+  </si>
+  <si>
+    <t>石津铭</t>
+  </si>
+  <si>
+    <t>段玉麟</t>
+  </si>
+  <si>
+    <t>郑起桢</t>
+  </si>
+  <si>
+    <t>周玲琳（周玲聿）</t>
+  </si>
+  <si>
+    <t>孔思佳</t>
+  </si>
+  <si>
+    <t>韦怀志</t>
+  </si>
+  <si>
+    <t>何宁</t>
+  </si>
+  <si>
+    <t>郭佳瑞</t>
+  </si>
+  <si>
+    <t>崔思琪</t>
+  </si>
+  <si>
+    <t>何婷</t>
+  </si>
+  <si>
+    <t>杨婧</t>
+  </si>
+  <si>
+    <t>韩沅汝</t>
+  </si>
+  <si>
+    <t>黄有斌</t>
+  </si>
+  <si>
+    <t>朱雨涵</t>
+  </si>
+  <si>
+    <t>邓宇晴</t>
+  </si>
+  <si>
+    <t>杨程程</t>
+  </si>
+  <si>
+    <t>李嘉劲</t>
+  </si>
+  <si>
+    <t>齐凯</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨泷惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下翟梦婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下缑娇娇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下秦依琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下金芸慧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈星宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下闫雨彤的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓绪国的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴咨廷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郭君仪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下季向空的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下江鸿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下谭灿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下肖明玉的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了10.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘家欣的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了100.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贺梦的物理学习情况：昨天学习的是比较重要的图像，一共听了108.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下查格西的物理学习情况：昨天学习的是比较重要的图像，一共听了111.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐鹏博的物理学习情况：昨天学习的是比较重要的图像，一共听了116.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘宇航的物理学习情况：昨天学习的是比较重要的图像，一共听了117.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是比较重要的图像，一共听了120.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵泽帆的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵曼的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下范子蕾的物理学习情况：昨天学习的是比较重要的图像，一共听了122.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈九洲的物理学习情况：昨天学习的是比较重要的图像，一共听了123.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王睿的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下华海洋的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯意涵的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐从的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杜懿轩的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邵麟婷的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贾晶的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下魏苗的物理学习情况：昨天学习的是比较重要的图像，一共听了129.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是比较重要的图像，一共听了129.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄浩伟的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李浚仪的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下石津铭的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下段玉麟的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郑起桢的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下周玲琳（周玲聿）的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下孔思佳的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韦怀志的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郭佳瑞的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下崔思琪的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何婷的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨婧的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韩沅汝的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄有斌的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了46.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下朱雨涵的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了54.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了74.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨程程的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了80.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李嘉劲的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了91.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下齐凯的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了98.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,15 +374,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,23 +421,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,27 +503,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,24 +537,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +712,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -471,33 +732,450 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2"/>
-    <row r="5" spans="1:2"/>
-    <row r="6" spans="1:2"/>
-    <row r="7" spans="1:2"/>
-    <row r="8" spans="1:2"/>
-    <row r="9" spans="1:2"/>
-    <row r="10" spans="1:2"/>
-    <row r="11" spans="1:2"/>
-    <row r="12" spans="1:2"/>
-    <row r="13" spans="1:2"/>
-    <row r="14" spans="1:2"/>
-    <row r="15" spans="1:2"/>
-    <row r="16" spans="1:2"/>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>姓名</t>
   </si>
@@ -22,340 +22,595 @@
     <t>反馈</t>
   </si>
   <si>
-    <t>杨泷惠</t>
-  </si>
-  <si>
-    <t>翟梦婷</t>
-  </si>
-  <si>
-    <t>缑娇娇</t>
-  </si>
-  <si>
-    <t>秦依琳</t>
+    <t>叶晴雨</t>
+  </si>
+  <si>
+    <t>许朝晖</t>
+  </si>
+  <si>
+    <t>企鹅辅导----------</t>
+  </si>
+  <si>
+    <t>唐子淇</t>
+  </si>
+  <si>
+    <t>韦黎歆</t>
+  </si>
+  <si>
+    <t>金志远</t>
+  </si>
+  <si>
+    <t>路明杰</t>
+  </si>
+  <si>
+    <t>杨锦兴</t>
+  </si>
+  <si>
+    <t>黄靖恒</t>
+  </si>
+  <si>
+    <t>唐晶如</t>
+  </si>
+  <si>
+    <t>蒋丞</t>
+  </si>
+  <si>
+    <t>肖昊</t>
+  </si>
+  <si>
+    <t>陈叶露</t>
+  </si>
+  <si>
+    <t>张涵</t>
+  </si>
+  <si>
+    <t>蒋东埈</t>
+  </si>
+  <si>
+    <t>张梓琳</t>
+  </si>
+  <si>
+    <t>冯云梦</t>
+  </si>
+  <si>
+    <t>谭鸿震</t>
+  </si>
+  <si>
+    <t>李一凡</t>
   </si>
   <si>
     <t>金芸慧</t>
   </si>
   <si>
+    <t>陶文婷</t>
+  </si>
+  <si>
+    <t>企鹅辅导------------</t>
+  </si>
+  <si>
+    <t>黄雅琳</t>
+  </si>
+  <si>
+    <t>尹子腾</t>
+  </si>
+  <si>
+    <t>宗兴涛</t>
+  </si>
+  <si>
+    <t>刘思成</t>
+  </si>
+  <si>
+    <t>董美煜</t>
+  </si>
+  <si>
+    <t>张沁缘</t>
+  </si>
+  <si>
+    <t>周欢</t>
+  </si>
+  <si>
+    <t>胡雪</t>
+  </si>
+  <si>
+    <t>徐健哲</t>
+  </si>
+  <si>
+    <t>吴嘉欣</t>
+  </si>
+  <si>
+    <t>赵嘉曦</t>
+  </si>
+  <si>
+    <t>杨晶茗</t>
+  </si>
+  <si>
+    <t>刘紫怡</t>
+  </si>
+  <si>
+    <t>郝帅</t>
+  </si>
+  <si>
     <t>陈星宇</t>
   </si>
   <si>
-    <t>闫雨彤</t>
+    <t>谭邦幸</t>
+  </si>
+  <si>
+    <t>褚金秋</t>
+  </si>
+  <si>
+    <t>杭慧鹏</t>
   </si>
   <si>
     <t>邓绪国</t>
   </si>
   <si>
-    <t>吴咨廷</t>
-  </si>
-  <si>
-    <t>吴琪</t>
-  </si>
-  <si>
-    <t>郭君仪</t>
+    <t>何宁</t>
+  </si>
+  <si>
+    <t>陈帅华</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>吴晓舰</t>
+  </si>
+  <si>
+    <t>徐陶泽</t>
+  </si>
+  <si>
+    <t>王紫怡</t>
+  </si>
+  <si>
+    <t>杨如静</t>
+  </si>
+  <si>
+    <t>许树阳</t>
+  </si>
+  <si>
+    <t>吴桐</t>
+  </si>
+  <si>
+    <t>王昊泽</t>
+  </si>
+  <si>
+    <t>张霖峰</t>
+  </si>
+  <si>
+    <t>王珂</t>
+  </si>
+  <si>
+    <t>刘冰心</t>
+  </si>
+  <si>
+    <t>张鑫寿</t>
+  </si>
+  <si>
+    <t>邱俊源</t>
+  </si>
+  <si>
+    <t>高绣璇</t>
+  </si>
+  <si>
+    <t>吴昊</t>
+  </si>
+  <si>
+    <t>刘苗苗</t>
+  </si>
+  <si>
+    <t>刘仙惠</t>
+  </si>
+  <si>
+    <t>刘思宇</t>
+  </si>
+  <si>
+    <t>舒雨鑫</t>
+  </si>
+  <si>
+    <t>王靖渊</t>
+  </si>
+  <si>
+    <t>江梓涵</t>
+  </si>
+  <si>
+    <t>韩沅汝</t>
+  </si>
+  <si>
+    <t>林俊鸿</t>
+  </si>
+  <si>
+    <t>戴志豪</t>
   </si>
   <si>
     <t>季向空</t>
   </si>
   <si>
-    <t>祝鑫鋆</t>
-  </si>
-  <si>
-    <t>江鸿</t>
-  </si>
-  <si>
-    <t>谭灿</t>
-  </si>
-  <si>
-    <t>肖明玉</t>
-  </si>
-  <si>
-    <t>刘家欣</t>
-  </si>
-  <si>
-    <t>贺梦</t>
-  </si>
-  <si>
-    <t>查格西</t>
-  </si>
-  <si>
-    <t>徐鹏博</t>
-  </si>
-  <si>
-    <t>刘宇航</t>
-  </si>
-  <si>
-    <t>李卓蔓</t>
-  </si>
-  <si>
-    <t>冯梦瑶</t>
-  </si>
-  <si>
-    <t>赵泽帆</t>
-  </si>
-  <si>
-    <t>赵曼</t>
-  </si>
-  <si>
-    <t>范子蕾</t>
-  </si>
-  <si>
-    <t>陈九洲</t>
-  </si>
-  <si>
-    <t>王睿</t>
-  </si>
-  <si>
-    <t>华海洋</t>
-  </si>
-  <si>
-    <t>冯意涵</t>
-  </si>
-  <si>
-    <t>徐从</t>
-  </si>
-  <si>
-    <t>杜懿轩</t>
-  </si>
-  <si>
-    <t>邵麟婷</t>
+    <t>吴佳泓</t>
+  </si>
+  <si>
+    <t>翁桂杰/翁澎杰</t>
+  </si>
+  <si>
+    <t>李旋</t>
   </si>
   <si>
     <t>贾晶</t>
   </si>
   <si>
-    <t>魏苗</t>
-  </si>
-  <si>
-    <t>刘颖洁</t>
-  </si>
-  <si>
-    <t>黄浩伟</t>
-  </si>
-  <si>
-    <t>李浚仪</t>
-  </si>
-  <si>
-    <t>石津铭</t>
-  </si>
-  <si>
-    <t>段玉麟</t>
-  </si>
-  <si>
-    <t>郑起桢</t>
-  </si>
-  <si>
-    <t>周玲琳（周玲聿）</t>
-  </si>
-  <si>
-    <t>孔思佳</t>
-  </si>
-  <si>
-    <t>韦怀志</t>
-  </si>
-  <si>
-    <t>何宁</t>
-  </si>
-  <si>
-    <t>郭佳瑞</t>
-  </si>
-  <si>
-    <t>崔思琪</t>
-  </si>
-  <si>
-    <t>何婷</t>
-  </si>
-  <si>
-    <t>杨婧</t>
-  </si>
-  <si>
-    <t>韩沅汝</t>
-  </si>
-  <si>
-    <t>黄有斌</t>
-  </si>
-  <si>
-    <t>朱雨涵</t>
-  </si>
-  <si>
-    <t>邓宇晴</t>
-  </si>
-  <si>
-    <t>杨程程</t>
-  </si>
-  <si>
-    <t>李嘉劲</t>
-  </si>
-  <si>
-    <t>齐凯</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杨泷惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下翟梦婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下缑娇娇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下秦依琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>李佳润</t>
+  </si>
+  <si>
+    <t>林轩逸</t>
+  </si>
+  <si>
+    <t>贺晓奥</t>
+  </si>
+  <si>
+    <t>李璨</t>
+  </si>
+  <si>
+    <t>吕冬雪</t>
+  </si>
+  <si>
+    <t>员子钰</t>
+  </si>
+  <si>
+    <t>李彤</t>
+  </si>
+  <si>
+    <t>杨辰</t>
+  </si>
+  <si>
+    <t>唐嘉琪</t>
+  </si>
+  <si>
+    <t>武城相</t>
+  </si>
+  <si>
+    <t>杨意林</t>
+  </si>
+  <si>
+    <t>郑海佳</t>
+  </si>
+  <si>
+    <t>王若冰</t>
+  </si>
+  <si>
+    <t>吴甜甜</t>
+  </si>
+  <si>
+    <t>高颖</t>
+  </si>
+  <si>
+    <t>赵智越</t>
+  </si>
+  <si>
+    <t>何余飞</t>
+  </si>
+  <si>
+    <t>黄露</t>
+  </si>
+  <si>
+    <t>高旌</t>
+  </si>
+  <si>
+    <t>汪佳玉</t>
+  </si>
+  <si>
+    <t>吴铱斐</t>
+  </si>
+  <si>
+    <t>朱颖超</t>
+  </si>
+  <si>
+    <t>张伟豪</t>
+  </si>
+  <si>
+    <t>鄢宇哲</t>
+  </si>
+  <si>
+    <t>周紫游</t>
+  </si>
+  <si>
+    <t>唐傲雪</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下叶晴雨的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下许朝晖的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下企鹅辅导----------的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下唐子淇的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韦黎歆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下金志远的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下路明杰的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨锦兴的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄靖恒的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下唐晶如的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下蒋丞的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下肖昊的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，而且下课之后又听了回放，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈叶露的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张涵的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了46.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下蒋东埈的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张梓琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯云梦的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下谭鸿震的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下nan的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李一凡的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下金芸慧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
+    <t>下午好，和您反馈一下陶文婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下企鹅辅导------------的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄雅琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下尹子腾的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下宗兴涛的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘思成的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下董美煜的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张沁缘的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下周欢的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下胡雪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐健哲的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴嘉欣的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵嘉曦的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨晶茗的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘紫怡的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郝帅的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
     <t>下午好，和您反馈一下陈星宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下闫雨彤的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下谭邦幸的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下褚金秋的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杭慧鹏的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下邓绪国的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下吴咨廷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下吴琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郭君仪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈帅华的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李丹的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴晓舰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐陶泽的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王紫怡的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨如静的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下许树阳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴桐的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王昊泽的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张霖峰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王珂的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘冰心的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张鑫寿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邱俊源的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下高绣璇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴昊的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘苗苗的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘仙惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘思宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下舒雨鑫的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王靖渊的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下江梓涵的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韩沅汝的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下林俊鸿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下戴志豪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下季向空的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下江鸿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下谭灿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下肖明玉的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了10.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下刘家欣的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了100.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下贺梦的物理学习情况：昨天学习的是比较重要的图像，一共听了108.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下查格西的物理学习情况：昨天学习的是比较重要的图像，一共听了111.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下徐鹏博的物理学习情况：昨天学习的是比较重要的图像，一共听了116.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下刘宇航的物理学习情况：昨天学习的是比较重要的图像，一共听了117.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是比较重要的图像，一共听了120.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下赵泽帆的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下赵曼的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下范子蕾的物理学习情况：昨天学习的是比较重要的图像，一共听了122.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下陈九洲的物理学习情况：昨天学习的是比较重要的图像，一共听了123.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下王睿的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下华海洋的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下冯意涵的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下徐从的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杜懿轩的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下邵麟婷的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下贾晶的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下魏苗的物理学习情况：昨天学习的是比较重要的图像，一共听了129.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是比较重要的图像，一共听了129.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下黄浩伟的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李浚仪的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下石津铭的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下段玉麟的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郑起桢的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下周玲琳（周玲聿）的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下孔思佳的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下韦怀志的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郭佳瑞的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下崔思琪的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下何婷的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杨婧的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下韩沅汝的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下黄有斌的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了46.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下朱雨涵的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了54.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了74.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杨程程的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了80.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李嘉劲的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了91.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下齐凯的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了98.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下吴佳泓的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下翁桂杰/翁澎杰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李旋的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贾晶的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李佳润的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下林轩逸的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贺晓奥的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李璨的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吕冬雪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下员子钰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李彤的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨辰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下唐嘉琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下武城相的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨意林的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郑海佳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王若冰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴甜甜的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下高颖的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵智越的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何余飞的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄露的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下高旌的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下汪佳玉的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴铱斐的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下朱颖超的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下张伟豪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下鄢宇哲的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下周紫游的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下唐傲雪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
 </sst>
 </file>
@@ -713,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -740,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -748,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -756,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -764,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -772,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -780,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -788,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -796,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -804,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -812,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -820,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -828,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -836,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -844,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -852,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -860,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -868,311 +1123,652 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>113</v>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC043C16CF4C8160B51639F19EF64B6E08E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04E23242-982E-7C4F-9D4B-2F965CD65255}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>姓名</t>
   </si>
@@ -22,6 +28,9 @@
     <t>反馈</t>
   </si>
   <si>
+    <t>反馈1</t>
+  </si>
+  <si>
     <t>杨雯瑾</t>
   </si>
   <si>
@@ -82,13 +91,13 @@
     <t>袁铁钧</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下杨雯瑾的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下孙于硕的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下凌潇楠的物理学习情况：昨天学习的是比较重要的图像，一共听了115.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下杨雯瑾的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下孙于硕的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下凌潇楠的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下李奕冰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -100,7 +109,7 @@
     <t>下午好，和您反馈一下郑思琪（王雨禾)的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下李贞乐的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下李贞乐的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下张子赫的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -109,48 +118,105 @@
     <t>下午好，和您反馈一下王双青的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下周琪璇的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了117.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下曹文君的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下万莫彤的物理学习情况：昨天学习的是比较重要的图像，一共听了121.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下王梦圆的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了3.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下经依琳（经博涵）的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了66分，加油~^_^</t>
+    <t>下午好，和您反馈一下周琪璇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下曹文君的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下万莫彤的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王梦圆的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了2.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下经依琳（经博涵）的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下张洁莹的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下房俊阳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下邓欣童的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下何琳璇的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>下午好，和您反馈一下房俊阳的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了1.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓欣童的物理学习情况：昨天学习的是比较重要的图像，一共听了103.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何琳璇的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下由晨欣的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下袁铁钧的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下袁铁钧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>家长你好，杨雯瑾目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，孙于硕目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，凌潇楠目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李奕冰目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，程惠佐目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郑思琪（王雨禾)目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李贞乐目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，张子赫目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，王双青目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，周琪璇目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，曹文君目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，王梦圆目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，经依琳（经博涵）目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，张洁莹目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，房俊阳目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，邓欣童目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，何琳璇目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，由晨欣目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，袁铁钧目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,8 +224,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,15 +278,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +368,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +420,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,182 +613,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="192.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylor/OneDrive/GitHub/Tencent/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC043C16CF4C8160B51639F19EF64B6E08E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04E23242-982E-7C4F-9D4B-2F965CD65255}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>姓名</t>
   </si>
@@ -31,192 +25,528 @@
     <t>反馈1</t>
   </si>
   <si>
-    <t>杨雯瑾</t>
-  </si>
-  <si>
-    <t>孙于硕</t>
-  </si>
-  <si>
-    <t>凌潇楠</t>
-  </si>
-  <si>
-    <t>李奕冰</t>
-  </si>
-  <si>
-    <t>程惠佐</t>
-  </si>
-  <si>
-    <t>郑思琪（王雨禾)</t>
-  </si>
-  <si>
-    <t>李贞乐</t>
-  </si>
-  <si>
-    <t>张子赫</t>
-  </si>
-  <si>
-    <t>王双青</t>
-  </si>
-  <si>
-    <t>周琪璇</t>
-  </si>
-  <si>
-    <t>曹文君</t>
-  </si>
-  <si>
-    <t>万莫彤</t>
-  </si>
-  <si>
-    <t>王梦圆</t>
-  </si>
-  <si>
-    <t>经依琳（经博涵）</t>
-  </si>
-  <si>
-    <t>张洁莹</t>
-  </si>
-  <si>
-    <t>房俊阳</t>
-  </si>
-  <si>
-    <t>邓欣童</t>
-  </si>
-  <si>
-    <t>何琳璇</t>
-  </si>
-  <si>
-    <t>由晨欣</t>
-  </si>
-  <si>
-    <t>袁铁钧</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杨雯瑾的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下孙于硕的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下凌潇楠的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李奕冰的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下程惠佐的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郑思琪（王雨禾)的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李贞乐的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下张子赫的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下王双青的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下周琪璇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下曹文君的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下万莫彤的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下王梦圆的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了2.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下经依琳（经博涵）的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下张洁莹的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下房俊阳的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了1.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下邓欣童的物理学习情况：昨天学习的是比较重要的图像，一共听了103.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下何琳璇的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下由晨欣的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下袁铁钧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，杨雯瑾目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，孙于硕目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，凌潇楠目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，李奕冰目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，程惠佐目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，郑思琪（王雨禾)目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，李贞乐目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，张子赫目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，王双青目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，周琪璇目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，曹文君目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，王梦圆目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，经依琳（经博涵）目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，张洁莹目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，房俊阳目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，邓欣童目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，何琳璇目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，由晨欣目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，袁铁钧目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>黄浩伟</t>
+  </si>
+  <si>
+    <t>白名单老哥</t>
+  </si>
+  <si>
+    <t>杨泷惠</t>
+  </si>
+  <si>
+    <t>杜懿轩</t>
+  </si>
+  <si>
+    <t>李烁宇</t>
+  </si>
+  <si>
+    <t>冯梦瑶</t>
+  </si>
+  <si>
+    <t>翟梦婷</t>
+  </si>
+  <si>
+    <t>刘宇航</t>
+  </si>
+  <si>
+    <t>魏苗</t>
+  </si>
+  <si>
+    <t>缑娇娇</t>
+  </si>
+  <si>
+    <t>秦依琳</t>
+  </si>
+  <si>
+    <t>内鬼</t>
+  </si>
+  <si>
+    <t>石津铭</t>
+  </si>
+  <si>
+    <t>金芸慧</t>
+  </si>
+  <si>
+    <t>邵麟婷</t>
+  </si>
+  <si>
+    <t>企鹅辅导</t>
+  </si>
+  <si>
+    <t>段玉麟</t>
+  </si>
+  <si>
+    <t>查格西</t>
+  </si>
+  <si>
+    <t>范子蕾</t>
+  </si>
+  <si>
+    <t>郑起桢</t>
+  </si>
+  <si>
+    <t>刘家欣</t>
+  </si>
+  <si>
+    <t>赵泽帆</t>
+  </si>
+  <si>
+    <t>周玲聿</t>
+  </si>
+  <si>
+    <t>贺梦</t>
+  </si>
+  <si>
+    <t>孔思佳</t>
+  </si>
+  <si>
+    <t>肖明玉</t>
+  </si>
+  <si>
+    <t>陈九洲</t>
+  </si>
+  <si>
+    <t>王睿</t>
+  </si>
+  <si>
+    <t>陈星宇</t>
+  </si>
+  <si>
+    <t>李卓蔓</t>
+  </si>
+  <si>
+    <t>韦怀志</t>
+  </si>
+  <si>
+    <t>闫雨彤</t>
+  </si>
+  <si>
+    <t>邓绪国</t>
+  </si>
+  <si>
+    <t>何宁</t>
+  </si>
+  <si>
+    <t>郭佳瑞</t>
+  </si>
+  <si>
+    <t>冯意涵</t>
+  </si>
+  <si>
+    <t>吴咨廷</t>
+  </si>
+  <si>
+    <t>崔思琪</t>
+  </si>
+  <si>
+    <t>何婷</t>
+  </si>
+  <si>
+    <t>吴琪</t>
+  </si>
+  <si>
+    <t>杨婧</t>
+  </si>
+  <si>
+    <t>郭君仪</t>
+  </si>
+  <si>
+    <t>杨程程</t>
+  </si>
+  <si>
+    <t>李嘉劲</t>
+  </si>
+  <si>
+    <t>韩沅汝</t>
+  </si>
+  <si>
+    <t>季向空</t>
+  </si>
+  <si>
+    <t>齐凯</t>
+  </si>
+  <si>
+    <t>贾晶</t>
+  </si>
+  <si>
+    <t>祝鑫鋆</t>
+  </si>
+  <si>
+    <t>赵曼</t>
+  </si>
+  <si>
+    <t>邓宇晴</t>
+  </si>
+  <si>
+    <t>江鸿</t>
+  </si>
+  <si>
+    <t>薛天航</t>
+  </si>
+  <si>
+    <t>刘颖洁</t>
+  </si>
+  <si>
+    <t>刘轩冉</t>
+  </si>
+  <si>
+    <t>朱雨涵</t>
+  </si>
+  <si>
+    <t>徐从</t>
+  </si>
+  <si>
+    <t>谭灿</t>
+  </si>
+  <si>
+    <t>黄汝斌</t>
+  </si>
+  <si>
+    <t>徐鹏博</t>
+  </si>
+  <si>
+    <t>华海洋</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄浩伟的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下白名单老哥的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨泷惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杜懿轩的物理学习情况：昨天学习的是比较重要的图像，一共听了114.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李烁宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是比较重要的图像，一共听了107.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下翟梦婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘宇航的物理学习情况：昨天学习的是比较重要的图像，一共听了112.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下魏苗的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下缑娇娇的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下秦依琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下内鬼的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下石津铭的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下金芸慧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邵麟婷的物理学习情况：昨天学习的是比较重要的图像，一共听了115.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下企鹅辅导的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下段玉麟的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了74.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下查格西的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了67.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下范子蕾的物理学习情况：昨天学习的是比较重要的图像，一共听了115.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郑起桢的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了70分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘家欣的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了9.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵泽帆的物理学习情况：昨天学习的是比较重要的图像，一共听了126.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下周玲聿的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贺梦的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下孔思佳的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下肖明玉的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈九洲的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王睿的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了126.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈星宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是比较重要的图像，一共听了120.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韦怀志的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下闫雨彤的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓绪国的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郭佳瑞的物理学习情况：昨天学习的是比较重要的图像，一共听了117.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯意涵的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴咨廷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下崔思琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下吴琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨婧的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郭君仪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杨程程的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了1.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李嘉劲的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了87.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韩沅汝的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下季向空的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下齐凯的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贾晶的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵曼的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下江鸿的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下薛天航的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘轩冉的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下朱雨涵的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了30.0分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐从的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下谭灿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄汝斌的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐鹏博的物理学习情况：昨天学习的是比较重要的图像，一共听了122.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下华海洋的物理学习情况：昨天学习的是比较重要的图像，一共听了108.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下nan的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>家长你好，黄浩伟目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，白名单老哥目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杨泷惠目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李烁宇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，冯梦瑶目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，翟梦婷目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘宇航目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，魏苗目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，缑娇娇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，秦依琳目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，内鬼目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，金芸慧目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，企鹅辅导目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，查格西目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，范子蕾目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘家欣目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，赵泽帆目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，周玲聿目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，贺梦目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，肖明玉目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，陈九洲目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，陈星宇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李卓蔓目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，闫雨彤目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，邓绪国目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，何宁目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郭佳瑞目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，冯意涵目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，吴咨廷目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，崔思琪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，吴琪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杨婧目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郭君仪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杨程程目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李嘉劲目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，韩沅汝目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，季向空目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，齐凯目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，贾晶目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，祝鑫鋆目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，赵曼目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，邓宇晴目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，薛天航目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘颖洁目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘轩冉目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，谭灿目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，华海洋目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，nan目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,15 +554,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,23 +601,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -336,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,27 +683,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,24 +717,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,15 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="192.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -639,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -650,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -661,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -672,10 +948,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -683,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -694,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -705,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -716,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -727,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -738,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -749,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -760,7 +1033,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -768,10 +1044,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -779,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -790,10 +1063,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -801,10 +1071,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -812,10 +1082,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -823,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -834,10 +1101,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -845,14 +1112,442 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>姓名</t>
   </si>
@@ -208,34 +208,37 @@
     <t>华海洋</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下黄浩伟的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>温宗雯</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下黄浩伟的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下白名单老哥的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下杨泷惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下杜懿轩的物理学习情况：昨天学习的是比较重要的图像，一共听了114.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+    <t>下午好，和您反馈一下杨泷惠的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下杜懿轩的物理学习情况：昨天学习的是比较重要的图像，一共听了126.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下李烁宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是比较重要的图像，一共听了107.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下翟梦婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下刘宇航的物理学习情况：昨天学习的是比较重要的图像，一共听了112.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下魏苗的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下缑娇娇的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下冯梦瑶的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下翟梦婷的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了95.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘宇航的物理学习情况：昨天学习的是比较重要的图像，一共听了102.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下魏苗的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了9.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下缑娇娇的物理学习情况：昨天学习的是比较重要的图像，一共听了113.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下秦依琳的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -244,61 +247,61 @@
     <t>下午好，和您反馈一下内鬼的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下石津铭的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+    <t>下午好，和您反馈一下石津铭的物理学习情况：昨天学习的是比较重要的图像，一共听了110.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下金芸慧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下邵麟婷的物理学习情况：昨天学习的是比较重要的图像，一共听了115.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+    <t>下午好，和您反馈一下邵麟婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下企鹅辅导的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下段玉麟的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了74.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下查格西的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了67.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下范子蕾的物理学习情况：昨天学习的是比较重要的图像，一共听了115.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郑起桢的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了70分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下刘家欣的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了9.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下赵泽帆的物理学习情况：昨天学习的是比较重要的图像，一共听了126.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下周玲聿的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下贺梦的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下孔思佳的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下肖明玉的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下陈九洲的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下王睿的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了126.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+    <t>下午好，和您反馈一下段玉麟的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下查格西的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下范子蕾的物理学习情况：昨天学习的是比较重要的图像，一共听了126.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郑起桢的物理学习情况：昨天学习的是比较重要的图像，一共听了120.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下刘家欣的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下赵泽帆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下周玲聿的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下贺梦的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下孔思佳的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下肖明玉的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了11.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下陈九洲的物理学习情况：昨天学习的是比较重要的图像，一共听了126.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下王睿的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了97.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下陈星宇的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是比较重要的图像，一共听了120.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下韦怀志的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+    <t>下午好，和您反馈一下李卓蔓的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了96.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下韦怀志的物理学习情况：昨天学习的是比较重要的图像，一共听了123.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下闫雨彤的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -307,37 +310,37 @@
     <t>下午好，和您反馈一下邓绪国的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下郭佳瑞的物理学习情况：昨天学习的是比较重要的图像，一共听了117.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下冯意涵的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下何宁的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下郭佳瑞的物理学习情况：昨天学习的是比较重要的图像，一共听了123.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下冯意涵的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下吴咨廷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下崔思琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下何婷的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+    <t>下午好，和您反馈一下崔思琪的物理学习情况：昨天学习的是比较重要的图像，一共听了129.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下何婷的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了116.0分钟的直播课程，不过目前已经看了回放，下次记得按时上课~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下吴琪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下杨婧的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下杨婧的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下郭君仪的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下杨程程的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了1.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下李嘉劲的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了87.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下杨程程的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下李嘉劲的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下韩沅汝的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -346,7 +349,7 @@
     <t>下午好，和您反馈一下季向空的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下齐凯的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下齐凯的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下贾晶的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
@@ -355,25 +358,25 @@
     <t>下午好，和您反馈一下祝鑫鋆的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下赵曼的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下江鸿的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+    <t>下午好，和您反馈一下赵曼的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下邓宇晴的物理学习情况：昨天学习的是比较重要的图像，一共听了123.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下江鸿的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下薛天航的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是比较重要的图像，一共听了128.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>下午好，和您反馈一下刘颖洁的物理学习情况：昨天学习的是比较重要的图像，一共听了127.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下刘轩冉的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下朱雨涵的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了30.0分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t>下午好，和您反馈一下朱雨涵的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
     <t>下午好，和您反馈一下徐从的物理学习情况：昨天学习的是比较重要的图像，一共听了130.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
@@ -382,160 +385,187 @@
     <t>下午好，和您反馈一下谭灿的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
   </si>
   <si>
-    <t>下午好，和您反馈一下黄汝斌的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加今天的直播课，然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下徐鹏博的物理学习情况：昨天学习的是比较重要的图像，一共听了122.0分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下华海洋的物理学习情况：昨天学习的是比较重要的图像，一共听了108.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>下午好，和您反馈一下nan的物理学习情况：昨天学习的是比较重要的图像，孩子由于时间原因没有参加直播，不过目前已经看了回放，如果有不懂的可以问我~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>家长你好，黄浩伟目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>下午好，和您反馈一下黄汝斌的物理学习情况：昨天学习的是比较重要的图像，早上可能来晚了，只听了97.0分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下徐鹏博的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下华海洋的物理学习情况：昨天学习的是比较重要的图像，一共听了124.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>下午好，和您反馈一下温宗雯的物理学习情况：昨天学习的是比较重要的图像，一共听了125.0分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>家长你好，黄浩伟目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
     <t>家长你好，白名单老哥目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
-    <t>家长你好，杨泷惠目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，李烁宇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，冯梦瑶目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，翟梦婷目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，刘宇航目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，魏苗目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>家长你好，杨泷惠目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杜懿轩目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李烁宇目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，冯梦瑶目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，翟梦婷目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘宇航目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，魏苗目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
     <t>家长你好，缑娇娇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
-    <t>家长你好，秦依琳目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>家长你好，秦依琳目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
     <t>家长你好，内鬼目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
-    <t>家长你好，金芸慧目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>家长你好，石津铭目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，金芸慧目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
     <t>家长你好，企鹅辅导目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
-    <t>家长你好，查格西目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，范子蕾目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，刘家欣目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，赵泽帆目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，周玲聿目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，贺梦目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>家长你好，段玉麟目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，查格西目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，范子蕾目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郑起桢目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘家欣目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，赵泽帆目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，周玲聿目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，贺梦目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，孔思佳目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
     <t>家长你好，肖明玉目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
   <si>
-    <t>家长你好，陈九洲目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，陈星宇目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，李卓蔓目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，闫雨彤目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，邓绪国目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，何宁目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，郭佳瑞目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，冯意涵目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，吴咨廷目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，崔思琪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，吴琪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，杨婧目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，郭君仪目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，杨程程目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，李嘉劲目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，韩沅汝目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，季向空目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，齐凯目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，贾晶目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，祝鑫鋆目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，赵曼目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，邓宇晴目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，薛天航目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，刘颖洁目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，刘轩冉目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，谭灿目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，华海洋目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
-  </si>
-  <si>
-    <t>家长你好，nan目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+    <t>家长你好，王睿目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，陈星宇目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李卓蔓目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，韦怀志目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，闫雨彤目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，邓绪国目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，何宁目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郭佳瑞目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，冯意涵目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，吴咨廷目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，崔思琪目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，吴琪目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杨婧目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，郭君仪目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，杨程程目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，李嘉劲目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，韩沅汝目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，季向空目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，齐凯目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，贾晶目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，祝鑫鋆目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，邓宇晴目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，江鸿目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，薛天航目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘颖洁目前还有3次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，刘轩冉目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，朱雨涵目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，谭灿目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，黄汝斌目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，徐鹏博目前还有1次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，华海洋目前还有2次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
+  </si>
+  <si>
+    <t>家长你好，温宗雯目前还有4次作业没有提交。临近月考，麻烦家长督促孩子完成作业，便于发现孩子目前物理存在的问题</t>
   </si>
 </sst>
 </file>
@@ -915,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -926,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -937,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +978,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,10 +989,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -978,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -989,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1000,10 +1033,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1011,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1022,10 +1055,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1033,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1044,7 +1077,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1052,10 +1088,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1063,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1071,10 +1107,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1082,7 +1118,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1090,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1101,10 +1140,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1112,7 +1151,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1120,10 +1162,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1131,10 +1173,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1142,10 +1184,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1153,10 +1195,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1164,7 +1206,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1172,10 +1217,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1183,10 +1228,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1194,7 +1236,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1202,10 +1247,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1213,10 +1258,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1224,7 +1269,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1232,10 +1280,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1243,10 +1291,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1254,10 +1302,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1265,10 +1313,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1276,10 +1324,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1287,10 +1335,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1298,10 +1346,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1309,7 +1357,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1317,10 +1365,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1328,10 +1376,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1339,10 +1387,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1350,10 +1398,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1361,10 +1409,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1372,10 +1420,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1383,10 +1431,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1394,10 +1442,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1405,10 +1453,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1416,10 +1464,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1427,10 +1475,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1438,10 +1483,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1449,7 +1494,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1457,10 +1505,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1468,10 +1516,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1479,10 +1527,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1490,7 +1538,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1498,7 +1549,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1506,10 +1557,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1517,7 +1568,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1525,7 +1579,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1533,18 +1590,21 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
